--- a/Excel_to_XML/product/data.xlsx
+++ b/Excel_to_XML/product/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ForMac/UserData/Bach Khoa/192/Xử lý số tín hiệu/Mở rộng_Nguyễn Thanh Tuấn/product/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ForMac/UserData/Bach Khoa/192/Xử lý số tín hiệu/MR_Nguyễn Thanh Tuấn/product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F7A7F-549A-8345-AB6B-DF62D9D8AED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CF289E-1D40-2A4F-B9F3-3AF7A2A55D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="25340" windowHeight="17040" xr2:uid="{7FE105D0-E870-8645-AAA7-F8EB81B9AC60}"/>
+    <workbookView xWindow="3460" yWindow="460" windowWidth="25340" windowHeight="17040" xr2:uid="{7FE105D0-E870-8645-AAA7-F8EB81B9AC60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="290">
   <si>
     <t>STT</t>
   </si>
@@ -902,50 +902,17 @@
     <t>Ví dụ: ngày 31/03/2015 15:20 được hiển thị là: 201503311520</t>
   </si>
   <si>
-    <t>NGUYỄN VĂN NỘI KHOA</t>
-  </si>
-  <si>
-    <t>27 phố Hàng Đậu, phường Trúc Bạch, Quận Ba Đình, Thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HS1231231222222 </t>
-  </si>
-  <si>
     <t>GT_THE_DEN</t>
   </si>
   <si>
-    <t>Bệnh nhân 1</t>
-  </si>
-  <si>
     <t>Trường hợp người bệnh ra viện nhưng chưa thực hiện thanh toán thì để trống khi chuyển dữ liệu lên cổng tiếp nhận. Khi người bệnh thanh toán hoặc cơ sở khám bệnh, chữa bệnh hoàn tất thủ tục thanh toán (do bệnh nhân bỏ trốn không làm thủ tục thanh toán) thì cơ sở KCB có trách nhiệm bổ sung thông tin ngày thanh toán và gửi lại dữ liệu lên Cổng tiếp nhận hoặc bổ sung thông tin ngày thanh toán trực tiếp trên Cổng tiếp nhận.</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>Đúng tuyến</t>
-  </si>
-  <si>
-    <t>Khám bệnh</t>
-  </si>
-  <si>
-    <t>Chuyển viện</t>
-  </si>
-  <si>
-    <t>Tử vong</t>
-  </si>
-  <si>
-    <t>điên khùng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyymmdd"/>
-  </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1017,11 +984,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="TimesNewRomanPSMT"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1041,7 +1003,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1053,19 +1015,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1184,7 +1133,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1205,13 +1154,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1228,34 +1174,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1277,248 +1220,149 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1836,1200 +1680,963 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E022BED-9748-EA4A-8737-BB258FCD92E4}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="88" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56" customHeight="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:5" ht="56" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="40" customHeight="1">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="40" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="D2" s="104"/>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16">
+        <v>100</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="B4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="45">
+        <v>10</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="46">
+        <v>100</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A3" s="17">
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="45">
+        <v>255</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="46">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="E8" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="46">
+        <v>1024</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A10" s="51">
+        <v>8</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A13" s="51"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A14" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A17" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A18" s="51"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A19" s="51"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A20" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A23" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="58">
+        <v>8</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A24" s="51"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A25" s="51"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A26" s="23">
+        <v>13</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A27" s="10">
+        <v>14</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="45">
+        <v>15</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A28" s="23">
+        <v>15</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="46">
+        <v>255</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A29" s="10">
+        <v>16</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="45">
+        <v>1</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A30" s="23">
+        <v>17</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="46">
         <v>5</v>
       </c>
-      <c r="C3" s="78">
-        <v>123123</v>
-      </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E30" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A31" s="10">
+        <v>18</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="45">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A32" s="61">
+        <v>19</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="64">
+        <v>12</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A34" s="51">
+        <v>20</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="58">
+        <v>12</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A35" s="51"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A37" s="51"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A38" s="23">
+        <v>21</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="46">
+        <v>3</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A39" s="10">
+        <v>22</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="45">
+        <v>1</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A40" s="23">
+        <v>23</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="46">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A41" s="51">
+        <v>24</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="58">
+        <v>12</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A43" s="51"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A44" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="46">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A45" s="10">
+        <v>26</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="45">
+        <v>15</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A46" s="23">
+        <v>27</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="46">
+        <v>15</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A47" s="10">
+        <v>28</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="45">
+        <v>15</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A48" s="23">
+        <v>29</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="46">
+        <v>15</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A49" s="10">
+        <v>30</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="45">
+        <v>15</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A50" s="23">
+        <v>31</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="46">
+        <v>15</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A51" s="10">
+        <v>32</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="45">
+        <v>15</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A52" s="23">
+        <v>33</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="46">
+        <v>4</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A53" s="10">
+        <v>34</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="45">
+        <v>2</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A54" s="66">
+        <v>35</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="66">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A55" s="64"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A56" s="67"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="45">
+        <v>15</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A4" s="11">
+    </row>
+    <row r="58" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A58" s="23">
+        <v>37</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="46">
+        <v>5</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A59" s="10">
+        <v>38</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="79">
-        <v>1</v>
-      </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="47">
-        <v>10</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A5" s="24">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="78">
-        <v>123123</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="48">
-        <v>100</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="47">
+      <c r="E59" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="26" customFormat="1" ht="19">
+      <c r="A60" s="11">
+        <v>39</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="44">
         <v>255</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A7" s="24">
+      <c r="E60" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A61" s="51">
+        <v>40</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="58">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="91">
-        <v>33358</v>
-      </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="48">
-        <v>8</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="47">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="47">
-      <c r="A9" s="24">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="48">
-        <v>1024</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="18" customFormat="1" ht="19">
-      <c r="A10" s="49">
-        <v>8</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="19" customFormat="1" ht="19">
-      <c r="A11" s="49"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" ht="19">
-      <c r="A12" s="49"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="20" customFormat="1" ht="19">
-      <c r="A13" s="49"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A14" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="90">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" ht="19">
-      <c r="A17" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="92">
-        <v>33358</v>
-      </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" ht="19">
-      <c r="A18" s="49"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="20" customFormat="1" ht="19">
-      <c r="A19" s="49"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A20" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="C20" s="95">
-        <v>33358</v>
-      </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" ht="19">
-      <c r="A23" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="92">
-        <v>33358</v>
-      </c>
-      <c r="D23" s="113"/>
-      <c r="E23" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="67">
-        <v>8</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="19" customFormat="1" ht="19">
-      <c r="A24" s="49"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="20" customFormat="1" ht="19">
-      <c r="A25" s="49"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A26" s="24">
-        <v>13</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A27" s="11">
-        <v>14</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="79">
-        <v>22222</v>
-      </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="47">
-        <v>15</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A28" s="24">
-        <v>15</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="78">
-        <v>22222</v>
-      </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="48">
-        <v>255</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A29" s="11">
-        <v>16</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="47">
-        <v>1</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A30" s="24">
-        <v>17</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="78">
-        <v>12345</v>
-      </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="48">
-        <v>5</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A31" s="11">
-        <v>18</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="79">
-        <v>1</v>
-      </c>
-      <c r="D31" s="106"/>
-      <c r="E31" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="47">
-        <v>1</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A32" s="59">
-        <v>19</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="84">
-        <v>201505010000</v>
-      </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="66">
-        <v>12</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A33" s="59"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="18" customFormat="1" ht="19">
-      <c r="A34" s="49">
-        <v>20</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="81">
-        <v>201505120000</v>
-      </c>
-      <c r="D34" s="109"/>
-      <c r="E34" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="67">
-        <v>12</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="19" customFormat="1" ht="19">
-      <c r="A35" s="49"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="19" customFormat="1" ht="19">
-      <c r="A36" s="49"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="20" customFormat="1" ht="19">
-      <c r="A37" s="49"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A38" s="24">
-        <v>21</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="78">
-        <v>11</v>
-      </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="48">
-        <v>3</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A39" s="11">
-        <v>22</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="79" t="s">
-        <v>298</v>
-      </c>
-      <c r="D39" s="106"/>
-      <c r="E39" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="47">
-        <v>1</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A40" s="24">
-        <v>23</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="78" t="s">
-        <v>297</v>
-      </c>
-      <c r="D40" s="105"/>
-      <c r="E40" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="48">
-        <v>1</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="18" customFormat="1" ht="19">
-      <c r="A41" s="49">
-        <v>24</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="81">
-        <v>201505120000</v>
-      </c>
-      <c r="D41" s="109"/>
-      <c r="E41" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="67">
-        <v>12</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="19" customFormat="1" ht="19">
-      <c r="A42" s="49"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="20" customFormat="1" ht="19">
-      <c r="A43" s="49"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A44" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="89">
-        <v>345.67899999999997</v>
-      </c>
-      <c r="D44" s="116"/>
-      <c r="E44" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="48">
-        <v>15</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A45" s="11">
-        <v>26</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="98">
-        <v>345.67899999999997</v>
-      </c>
-      <c r="D45" s="117"/>
-      <c r="E45" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="47">
-        <v>15</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A46" s="24">
-        <v>27</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="89">
-        <v>345.67899999999997</v>
-      </c>
-      <c r="D46" s="116"/>
-      <c r="E46" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="48">
-        <v>15</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A47" s="11">
-        <v>28</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="98">
-        <v>345.67899999999997</v>
-      </c>
-      <c r="D47" s="117"/>
-      <c r="E47" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="47">
-        <v>15</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A48" s="24">
-        <v>29</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="89">
-        <v>345.67899999999997</v>
-      </c>
-      <c r="D48" s="116"/>
-      <c r="E48" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="48">
-        <v>15</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A49" s="11">
-        <v>30</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="98">
-        <v>345.67899999999997</v>
-      </c>
-      <c r="D49" s="117"/>
-      <c r="E49" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="47">
-        <v>15</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A50" s="24">
-        <v>31</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="89">
-        <v>345.67899999999997</v>
-      </c>
-      <c r="D50" s="116"/>
-      <c r="E50" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="48">
-        <v>15</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A51" s="11">
-        <v>32</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="98">
-        <v>345.67899999999997</v>
-      </c>
-      <c r="D51" s="117"/>
-      <c r="E51" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="47">
-        <v>15</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A52" s="24">
-        <v>33</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="78">
-        <v>2000</v>
-      </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="48">
-        <v>4</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A53" s="11">
-        <v>34</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="79">
-        <v>12</v>
-      </c>
-      <c r="D53" s="106"/>
-      <c r="E53" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="47">
-        <v>2</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A54" s="72">
-        <v>35</v>
-      </c>
-      <c r="B54" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>296</v>
-      </c>
-      <c r="D54" s="99"/>
-      <c r="E54" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="72">
-        <v>1</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A55" s="66"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A56" s="73"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A57" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="79">
-        <v>123</v>
-      </c>
-      <c r="D57" s="106"/>
-      <c r="E57" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="47">
-        <v>15</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="16" customFormat="1" ht="19">
-      <c r="A58" s="24">
-        <v>37</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="78">
-        <v>123</v>
-      </c>
-      <c r="D58" s="105"/>
-      <c r="E58" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="48">
-        <v>5</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="22" customFormat="1" ht="19">
-      <c r="A59" s="11">
-        <v>38</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="79">
-        <v>123</v>
-      </c>
-      <c r="D59" s="106"/>
-      <c r="E59" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="47">
-        <v>2</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="27" customFormat="1" ht="19">
-      <c r="A60" s="12">
-        <v>39</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="87">
-        <v>123</v>
-      </c>
-      <c r="D60" s="118"/>
-      <c r="E60" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="46">
-        <v>255</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="18" customFormat="1" ht="19">
-      <c r="A61" s="49">
-        <v>40</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="81">
-        <v>123</v>
-      </c>
-      <c r="D61" s="109"/>
-      <c r="E61" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F61" s="67">
-        <v>5</v>
-      </c>
-      <c r="G61" s="18" t="s">
+      <c r="E61" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="19" customFormat="1" ht="19">
-      <c r="A62" s="49"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="19" t="s">
+    <row r="62" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A62" s="51"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="20" customFormat="1" ht="19">
-      <c r="A63" s="49"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="111"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="20" t="s">
+    <row r="63" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A63" s="51"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:5">
+      <c r="A64" s="9"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="51">
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="41">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="B61:B63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D17:D19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:B22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{BAA35946-0228-3143-BBCE-7168F53ECADB}">
-      <formula1>"Nam,Nữ,Chưa xác định"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:D29" xr:uid="{9BEBBB37-58B3-1343-939D-C812603A7034}">
-      <formula1>"Đúng tuyến,Cấp cứu,Trái tuyến,Thông tuyến"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54:D56" xr:uid="{17362096-5831-284C-868E-0D54E116D6EC}">
-      <formula1>"Khám bệnh,Điều trị ngoại trú,Điều trị nội trú"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:D40" xr:uid="{A073B30F-ED4B-FE4F-A22E-BACCE5AC78D5}">
-      <formula1>"Ra viện,Chuyển viện,Trốn viện,Xin ra viện"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:D39" xr:uid="{0F034798-F8FE-5C4C-AD78-25ABFC08A8D2}">
-      <formula1>"Khỏi,Đỡ,Không thay đổi,Nặng hơn,Tử vong"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3052,675 +2659,675 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="53" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-    </row>
-    <row r="2" spans="1:5" s="44" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" s="42" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A3" s="15">
+    <row r="3" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14">
         <v>100</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A4" s="39">
+    <row r="4" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A4" s="37">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="23">
-        <v>6</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="C4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="22">
+        <v>6</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A5" s="62">
+    <row r="5" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A5" s="73">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="62">
+      <c r="C5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="73">
         <v>255</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A6" s="62"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="14" t="s">
+    <row r="6" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A7" s="62"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="14" t="s">
+    <row r="7" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A8" s="62"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="14" t="s">
+    <row r="8" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A9" s="62"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="14" t="s">
+    <row r="9" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A10" s="62"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="14" t="s">
+    <row r="10" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A11" s="62"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="14" t="s">
+    <row r="11" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A12" s="62"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="14" t="s">
+    <row r="12" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A13" s="39">
+    <row r="13" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="23">
+      <c r="C13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="22">
         <v>2</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A14" s="15">
+    <row r="14" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A14" s="14">
         <v>5</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14">
         <v>1024</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" ht="19">
-      <c r="A15" s="64">
-        <v>6</v>
-      </c>
-      <c r="B15" s="53" t="s">
+    <row r="15" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A15" s="75">
+        <v>6</v>
+      </c>
+      <c r="B15" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="56">
+      <c r="C15" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="79">
         <v>50</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="20" customFormat="1" ht="19">
-      <c r="A16" s="65"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="20" t="s">
+    <row r="16" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A16" s="76"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A17" s="62">
+    <row r="17" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A17" s="73">
         <v>7</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="62">
+      <c r="C17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="73">
         <v>1024</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A18" s="62"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="14" t="s">
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A19" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="23">
+      <c r="C19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="22">
         <v>4</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A20" s="62">
+    <row r="20" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A20" s="73">
         <v>9</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="62">
+      <c r="C20" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="73">
         <v>255</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A21" s="62"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="14" t="s">
+    <row r="21" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A22" s="39">
+    <row r="22" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A22" s="37">
         <v>10</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="C22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="22">
         <v>255</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A23" s="62">
+    <row r="23" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A23" s="73">
         <v>11</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="62">
+      <c r="C23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="73">
         <v>25</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A24" s="62"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="14" t="s">
+    <row r="24" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A25" s="62"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="14" t="s">
+    <row r="25" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A26" s="39">
+    <row r="26" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A26" s="37">
         <v>12</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="C26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="22">
         <v>1</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A27" s="62">
+    <row r="27" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A27" s="73">
         <v>13</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="62">
+      <c r="C27" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="73">
         <v>3</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A28" s="62"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="14" t="s">
+    <row r="28" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A29" s="39">
+    <row r="29" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A29" s="37">
         <v>14</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="23">
+      <c r="C29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="22">
         <v>10</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A30" s="62">
+    <row r="30" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A30" s="73">
         <v>15</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="62">
+      <c r="C30" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="73">
         <v>15</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A31" s="62"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="14" t="s">
+    <row r="31" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A32" s="39">
+    <row r="32" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A32" s="37">
         <v>16</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="23">
+      <c r="C32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="22">
         <v>15</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A33" s="62" t="s">
+    <row r="33" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A33" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="62">
+      <c r="C33" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="73">
         <v>3</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A34" s="62"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="14" t="s">
+    <row r="34" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A35" s="62"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="14" t="s">
+    <row r="35" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A36" s="62"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="14" t="s">
+    <row r="36" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A37" s="62"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="14" t="s">
+    <row r="37" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A38" s="39" t="s">
+    <row r="38" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A38" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="23">
+      <c r="C38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="22">
         <v>15</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A39" s="15">
+    <row r="39" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A39" s="14">
         <v>19</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="15">
+      <c r="C39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="14">
         <v>15</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="18" customFormat="1" ht="19">
-      <c r="A40" s="64">
+    <row r="40" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A40" s="75">
         <v>20</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="56">
+      <c r="C40" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="79">
         <v>15</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="20" customFormat="1" ht="19">
-      <c r="A41" s="65"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="20" t="s">
+    <row r="41" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A41" s="76"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A42" s="62">
+    <row r="42" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A42" s="73">
         <v>21</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="62">
+      <c r="C42" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="73">
         <v>15</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A43" s="62"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="14" t="s">
+    <row r="43" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A43" s="73"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A44" s="39">
+    <row r="44" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A44" s="37">
         <v>22</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="23">
+      <c r="C44" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="22">
         <v>15</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A45" s="15">
+    <row r="45" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A45" s="14">
         <v>23</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="15">
+      <c r="C45" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="14">
         <v>15</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A46" s="39">
+    <row r="46" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A46" s="37">
         <v>24</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="23">
+      <c r="C46" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="22">
         <v>255</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A47" s="15">
+    <row r="47" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A47" s="14">
         <v>25</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="15">
+      <c r="C47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="14">
         <v>255</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="19">
-      <c r="A48" s="64">
+    <row r="48" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A48" s="75">
         <v>26</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="56">
+      <c r="C48" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="79">
         <v>12</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="20" customFormat="1" ht="19">
-      <c r="A49" s="65"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="20" t="s">
+    <row r="49" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A49" s="76"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A50" s="15">
+    <row r="50" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A50" s="14">
         <v>27</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="15">
+      <c r="C50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="14">
         <v>1</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="13" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3794,835 +3401,835 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="92" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-    </row>
-    <row r="2" spans="1:5" s="32" customFormat="1" ht="39" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" s="30" customFormat="1" ht="39" customHeight="1">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A3" s="17">
+    <row r="3" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14">
         <v>100</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="23">
-        <v>6</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="C4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="22">
+        <v>6</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A5" s="66">
+    <row r="5" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A5" s="64">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="62">
+      <c r="C5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="73">
         <v>20</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A6" s="66"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="14" t="s">
+    <row r="6" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A6" s="64"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A7" s="66"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="14" t="s">
+    <row r="7" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A7" s="64"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="19">
-      <c r="A8" s="67">
+    <row r="8" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A8" s="58">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="56">
+      <c r="C8" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="79">
         <v>255</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A9" s="68"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="19" t="s">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A9" s="59"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A10" s="68"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="19" t="s">
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A10" s="59"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="20" customFormat="1" ht="19">
-      <c r="A11" s="69"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="20" t="s">
+    <row r="11" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A11" s="60"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A12" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="62">
+      <c r="C12" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="73">
         <v>2</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A13" s="66"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="14" t="s">
+    <row r="13" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A13" s="64"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A14" s="11">
-        <v>6</v>
-      </c>
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A14" s="10">
+        <v>6</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="C14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="22">
         <v>2</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A15" s="24">
+    <row r="15" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A15" s="23">
         <v>7</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14">
         <v>1024</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="19">
-      <c r="A16" s="67">
-        <v>8</v>
-      </c>
-      <c r="B16" s="53" t="s">
+    <row r="16" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A16" s="58">
+        <v>8</v>
+      </c>
+      <c r="B16" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="56">
+      <c r="C16" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="79">
         <v>1024</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="20" customFormat="1" ht="19">
-      <c r="A17" s="69"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="20" t="s">
+    <row r="17" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A17" s="60"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A18" s="24">
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A18" s="23">
         <v>9</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="15">
+      <c r="C18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="14">
         <v>50</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A19" s="11">
+    <row r="19" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A19" s="10">
         <v>10</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="23">
+      <c r="C19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="22">
         <v>1</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A20" s="24">
+    <row r="20" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A20" s="23">
         <v>11</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="15">
+      <c r="C20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14">
         <v>10</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="18" customFormat="1" ht="19">
-      <c r="A21" s="67">
+    <row r="21" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A21" s="58">
         <v>12</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="56">
+      <c r="C21" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="79">
         <v>15</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A22" s="68"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="19" t="s">
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A22" s="59"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="20" customFormat="1" ht="19">
-      <c r="A23" s="69"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="20" t="s">
+    <row r="23" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A23" s="60"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="19" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A24" s="24">
+    <row r="24" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A24" s="23">
         <v>13</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="15">
+      <c r="C24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14">
         <v>25</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="18" customFormat="1" ht="19">
-      <c r="A25" s="67">
+    <row r="25" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A25" s="58">
         <v>14</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="56">
+      <c r="C25" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="79">
         <v>3</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A26" s="68"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="19" t="s">
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A26" s="59"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A27" s="68"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="19" t="s">
+    <row r="27" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A27" s="59"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A28" s="68"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="19" t="s">
+    <row r="28" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A28" s="59"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A29" s="68"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="19" t="s">
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A29" s="59"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A30" s="68"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="19" t="s">
+    <row r="30" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A30" s="59"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="18" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A31" s="68"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="19" t="s">
+    <row r="31" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A31" s="59"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A32" s="68"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="19" t="s">
+    <row r="32" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A32" s="59"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="20" customFormat="1" ht="19">
-      <c r="A33" s="69"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="20" t="s">
+    <row r="33" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A33" s="60"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A34" s="66" t="s">
+    <row r="34" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A34" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="62">
+      <c r="C34" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="73">
         <v>15</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A35" s="66"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="14" t="s">
+    <row r="35" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A35" s="64"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A36" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="23">
+      <c r="C36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="22">
         <v>15</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A37" s="66">
+    <row r="37" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A37" s="64">
         <v>17</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="62">
+      <c r="C37" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="73">
         <v>3</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A38" s="66"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="14" t="s">
+    <row r="38" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A38" s="64"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A39" s="66"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="14" t="s">
+    <row r="39" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A39" s="64"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A40" s="66"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="14" t="s">
+    <row r="40" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A40" s="64"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="13" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A41" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="23">
+      <c r="C41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="22">
         <v>15</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A42" s="24">
+    <row r="42" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A42" s="23">
         <v>19</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="15">
+      <c r="C42" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="14">
         <v>15</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="18" customFormat="1" ht="19">
-      <c r="A43" s="67">
+    <row r="43" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A43" s="58">
         <v>20</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="56">
+      <c r="C43" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="79">
         <v>15</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="20" customFormat="1" ht="19">
-      <c r="A44" s="69"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="20" t="s">
+    <row r="44" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A44" s="60"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A45" s="66">
+    <row r="45" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A45" s="64">
         <v>21</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="62">
+      <c r="C45" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="73">
         <v>15</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A46" s="66"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="14" t="s">
+    <row r="46" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A46" s="64"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A47" s="11">
+    <row r="47" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A47" s="10">
         <v>22</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="23">
+      <c r="C47" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="22">
         <v>15</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="21" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A48" s="24">
+    <row r="48" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A48" s="23">
         <v>23</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="15">
+      <c r="C48" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="14">
         <v>15</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="19">
-      <c r="A49" s="67">
+    <row r="49" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A49" s="58">
         <v>24</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="C49" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="56">
+      <c r="C49" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="79">
         <v>14</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="17" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A50" s="68"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="19" t="s">
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A50" s="59"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A51" s="68"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="19" t="s">
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A51" s="59"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="18" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A52" s="68"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="19" t="s">
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A52" s="59"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A53" s="68"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="19" t="s">
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A53" s="59"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="20" customFormat="1" ht="19">
-      <c r="A54" s="69"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="20" t="s">
+    <row r="54" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A54" s="60"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="19" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A55" s="66">
+    <row r="55" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A55" s="64">
         <v>25</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C55" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="62">
+      <c r="C55" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="73">
         <v>255</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A56" s="66"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="14" t="s">
+    <row r="56" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A56" s="64"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A57" s="11">
+    <row r="57" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A57" s="10">
         <v>26</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="23">
+      <c r="C57" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="22">
         <v>255</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A58" s="66">
+    <row r="58" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A58" s="64">
         <v>27</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="62">
+      <c r="C58" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="73">
         <v>12</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A59" s="66"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="14" t="s">
+    <row r="59" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A59" s="64"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A60" s="66"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="14" t="s">
+    <row r="60" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A60" s="64"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A61" s="66"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="14" t="s">
+    <row r="61" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A61" s="64"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="18" customFormat="1" ht="19">
-      <c r="A62" s="67">
+    <row r="62" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A62" s="58">
         <v>28</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="C62" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="56">
+      <c r="C62" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="79">
         <v>12</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A63" s="68"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="19" t="s">
+    <row r="63" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A63" s="59"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="19" customFormat="1" ht="19">
-      <c r="A64" s="68"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="19" t="s">
+    <row r="64" spans="1:5" s="18" customFormat="1" ht="19">
+      <c r="A64" s="59"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="18" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="20" customFormat="1" ht="19">
-      <c r="A65" s="69"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="20" t="s">
+    <row r="65" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A65" s="60"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A66" s="38">
+    <row r="66" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A66" s="36">
         <v>29</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="15">
+      <c r="C66" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="14">
         <v>1</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="13" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4700,386 +4307,386 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="201.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="62" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-    </row>
-    <row r="2" spans="1:5" s="32" customFormat="1" ht="19">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" s="30" customFormat="1" ht="19">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="40" customFormat="1" ht="19">
-      <c r="A3" s="17">
+    <row r="3" spans="1:5" s="38" customFormat="1" ht="19">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14">
         <v>100</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="29" customFormat="1" ht="19">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5" s="28" customFormat="1" ht="19">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="23">
-        <v>6</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="22">
+        <v>6</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="40" customFormat="1" ht="19">
-      <c r="A5" s="24">
+    <row r="5" spans="1:5" s="38" customFormat="1" ht="19">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
         <v>15</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="29" customFormat="1" ht="19">
-      <c r="A6" s="11">
+    <row r="6" spans="1:5" s="28" customFormat="1" ht="19">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="C6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="22">
         <v>50</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="40" customFormat="1" ht="19">
-      <c r="A7" s="24">
+    <row r="7" spans="1:5" s="38" customFormat="1" ht="19">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14">
         <v>255</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="29" customFormat="1" ht="19">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23" t="s">
+    <row r="8" spans="1:5" s="28" customFormat="1" ht="19">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="C8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="22">
         <v>50</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="40" customFormat="1" ht="19">
-      <c r="A9" s="66">
+    <row r="9" spans="1:5" s="38" customFormat="1" ht="19">
+      <c r="A9" s="64">
         <v>7</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="C9" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="62">
+      <c r="C9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="73">
         <v>50</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="40" customFormat="1" ht="19">
-      <c r="A10" s="66"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="28" t="s">
+    <row r="10" spans="1:5" s="38" customFormat="1" ht="19">
+      <c r="A10" s="64"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="27" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="40" customFormat="1" ht="19">
-      <c r="A11" s="66"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="28" t="s">
+    <row r="11" spans="1:5" s="38" customFormat="1" ht="19">
+      <c r="A11" s="64"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="27" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="40" customFormat="1" ht="19">
-      <c r="A12" s="66"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="28" t="s">
+    <row r="12" spans="1:5" s="38" customFormat="1" ht="19">
+      <c r="A12" s="64"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="27" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="40" customFormat="1" ht="19">
-      <c r="A13" s="66"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="28" t="s">
+    <row r="13" spans="1:5" s="38" customFormat="1" ht="19">
+      <c r="A13" s="64"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="27" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="29" customFormat="1" ht="19">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:5" s="28" customFormat="1" ht="19">
+      <c r="A14" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="C14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="22">
         <v>1024</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="40" customFormat="1" ht="19">
-      <c r="A15" s="24">
+    <row r="15" spans="1:5" s="38" customFormat="1" ht="19">
+      <c r="A15" s="23">
         <v>9</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14">
         <v>1024</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="41" customFormat="1" ht="19">
-      <c r="A16" s="67">
+    <row r="16" spans="1:5" s="39" customFormat="1" ht="19">
+      <c r="A16" s="58">
         <v>10</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="79" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="56">
+      <c r="C16" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="79">
         <v>12</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="39" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="42" customFormat="1" ht="19">
-      <c r="A17" s="69"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="42" t="s">
+    <row r="17" spans="1:5" s="40" customFormat="1" ht="19">
+      <c r="A17" s="60"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="40" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43" customHeight="1">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-    </row>
-    <row r="20" spans="1:5" s="31" customFormat="1" ht="19">
-      <c r="A20" s="34" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+    </row>
+    <row r="20" spans="1:5" s="29" customFormat="1" ht="19">
+      <c r="A20" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A21" s="17">
+    <row r="21" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A21" s="16">
         <v>1</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="15">
+      <c r="C21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14">
         <v>100</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A22" s="11">
+    <row r="22" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A22" s="10">
         <v>2</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="23">
-        <v>6</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="C22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="22">
+        <v>6</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A23" s="24">
+    <row r="23" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A23" s="23">
         <v>3</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="15">
+      <c r="C23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="14">
         <v>1024</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="22" customFormat="1" ht="19">
-      <c r="A24" s="11">
+    <row r="24" spans="1:5" s="21" customFormat="1" ht="19">
+      <c r="A24" s="10">
         <v>4</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A25" s="24">
+    <row r="25" spans="1:5" s="15" customFormat="1" ht="19">
+      <c r="A25" s="23">
         <v>5</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="15">
+      <c r="C25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14">
         <v>1024</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="18" customFormat="1" ht="19">
-      <c r="A26" s="67">
-        <v>6</v>
-      </c>
-      <c r="B26" s="56" t="s">
+    <row r="26" spans="1:5" s="17" customFormat="1" ht="19">
+      <c r="A26" s="58">
+        <v>6</v>
+      </c>
+      <c r="B26" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="56">
+      <c r="C26" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="79">
         <v>12</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="20" customFormat="1" ht="19">
-      <c r="A27" s="69"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="20" t="s">
+    <row r="27" spans="1:5" s="19" customFormat="1" ht="19">
+      <c r="A27" s="60"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="19" t="s">
         <v>287</v>
       </c>
     </row>
